--- a/reverseprimer-v3_39.xlsx
+++ b/reverseprimer-v3_39.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_39" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3649-CAACTCTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTCTGTAGTCTCGTGGGCTCGG</t>
+    <t>R3649-TGACGTACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACGTACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3650-ATGGAAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGAAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R3650-TCAGAGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAGTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R3651-ACTCATCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCATCAGAGTCTCGTGGGCTCGG</t>
+    <t>R3651-AAGGTCACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R3652-AGCACGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCACGATGTGTCTCGTGGGCTCGG</t>
+    <t>R3652-GTTCACAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCACAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R3653-AGCTGAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTGAGTTCGTCTCGTGGGCTCGG</t>
+    <t>R3653-AGTACGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACGTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R3654-GTCTACTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTACTGACGTCTCGTGGGCTCGG</t>
+    <t>R3654-TCTCGAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGAAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R3655-TACCAACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCAACTGTGTCTCGTGGGCTCGG</t>
+    <t>R3655-TTCAACCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAACCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R3656-GACTTCGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTTCGAGAGTCTCGTGGGCTCGG</t>
+    <t>R3656-GTAGTGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R3657-GTACAAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACAAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R3657-CAGTCAACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTCAACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R3658-AACTGTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGTCTGAGTCTCGTGGGCTCGG</t>
+    <t>R3658-AGCAGTACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAGTACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R3659-CCTGAGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGAGTGTTGTCTCGTGGGCTCGG</t>
+    <t>R3659-GCATCACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R3660-ACACAGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAGAGACGTCTCGTGGGCTCGG</t>
+    <t>R3660-ACTCTAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R3661-GAACCTAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCTAGTCGTCTCGTGGGCTCGG</t>
+    <t>R3661-TGTGACTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGACTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R3662-ACGAACCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAACCTTCGTCTCGTGGGCTCGG</t>
+    <t>R3662-GAACCTACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCTACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R3663-ACAACATGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACATGTCGTCTCGTGGGCTCGG</t>
+    <t>R3663-GACGATCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGATCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R3664-CTGGACTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGGACTAGAGTCTCGTGGGCTCGG</t>
+    <t>R3664-ACAAGCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGCTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R3665-TTCTGCTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGCTTCGGTCTCGTGGGCTCGG</t>
+    <t>R3665-GAACGTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGTCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R3666-AGACGATGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACGATGTTGTCTCGTGGGCTCGG</t>
+    <t>R3666-GAAGACAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGACAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R3667-GACTCGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTCGACTAGTCTCGTGGGCTCGG</t>
+    <t>R3667-CTCCATCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCATCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R3668-CGATGAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATGAGTACGTCTCGTGGGCTCGG</t>
+    <t>R3668-ACCTCTTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCTTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R3669-TCGTCTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCTAGCTGTCTCGTGGGCTCGG</t>
+    <t>R3669-TCCACAACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCACAACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R3670-TAGCTGCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGCAGTGTCTCGTGGGCTCGG</t>
+    <t>R3670-CGTACATGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTACATGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R3671-AGTCATCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCATCGATGTCTCGTGGGCTCGG</t>
+    <t>R3671-TCAGTAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTAGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R3672-GAACGTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGTGGTTGTCTCGTGGGCTCGG</t>
+    <t>R3672-ACGTAGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTAGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R3673-TGAGTCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R3673-CTGACTTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGACTTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R3674-CAGTCTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTCTTGCTGTCTCGTGGGCTCGG</t>
+    <t>R3674-ATCTAGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTAGTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R3675-AACCTTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R3675-ATCTGTTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGTTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R3676-ACTCTTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTTCGTAGTCTCGTGGGCTCGG</t>
+    <t>R3676-TGTAGGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGGTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R3677-TACACAGCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACAGCAGGTCTCGTGGGCTCGG</t>
+    <t>R3677-AACCACTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCACTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R3678-AACCATGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCATGTCTGTCTCGTGGGCTCGG</t>
+    <t>R3678-CGTTCTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTCTGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R3679-CTAGGAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGGAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R3679-ACTCTCCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTCCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R3680-GACTACAAGT</t>
+    <t>R3680-ACTACTCGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACTCGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R3681-GCAAGTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTGTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R3682-TCACAAGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACAAGGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R3683-ACAGTCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTCAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R3684-TCAGAGCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAGCTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R3685-GTCTCCTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTCCTGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R3686-AGTACTGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACTGGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R3687-TCGAGTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAGTCACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R3688-TTCCTTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTTCCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R3689-GAGTGCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGCATCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R3690-TCAAGGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGGAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R3691-GCTACTACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACTACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R3692-GAGTTGATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTGATGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R3693-GTACCAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACCAGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R3694-CACTTCCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTTCCACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R3695-ACCAGCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAGCAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R3696-TCTGCACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGCACAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R3697-AGTGTGGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTGGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R3698-GGTTGCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTGCAACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R3699-TACCACAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCACAGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R3700-GTGTCGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCGTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R3701-TGAAGACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGACTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R3702-TCAACGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACGAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R3703-AGAAGCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCAACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R3704-TTGTCAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCAGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R3705-GTACTCAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTCAGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R3706-TAGCTCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTCAGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R3707-CAACACACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACACACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R3708-AGTCTCGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R3709-GCTACGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACGTGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R3710-TCAGTTCTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTTCTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R3711-GACTACAAGT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATGACTACAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R3681-CACTGTTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTGTTGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R3682-GCAGTACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGTACAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R3683-CAAGAGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGATCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R3684-AACAGCATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGCATCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R3685-GATGAGCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGAGCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R3686-GAAGACTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGACTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R3687-GTTCGTACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTACTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R3688-GATCTCGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTCGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R3689-ACACTGAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTGAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R3690-CACATCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACATCATCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R3691-GGTTGAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTGAGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R3692-AGAGGTACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGGTACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R3693-AACGTACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTACTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R3694-TAGGAGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGAGTCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R3695-TTGTAGGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTAGGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R3696-GTAGAACCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAACCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R3697-GATGCAAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCAAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R3698-ATGGACGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGACGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R3699-ACAACTAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACTAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R3700-TAGTTGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTTGATCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R3701-TCTTGACTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGACTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R3702-TGTCTGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTGACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R3703-ACTCTTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTTCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R3704-AGTACGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACGTACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R3705-GTGGAGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGAGTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R3706-ATGCAGGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCAGGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R3707-GCTACAACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACAACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R3708-CTGACTTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACTTGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R3709-CCTCACTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCACTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R3710-TTGTGTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTGTGTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R3711-AGACATCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACATCAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R3712-TGGATCGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGATCGTTCGTCTCGTGGGCTCGG</t>
+    <t>R3712-CGTGTAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGTAGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R3713-GATGAGATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGAGATGGGTCTCGTGGGCTCGG</t>
+    <t>R3713-ATCAGCTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGCTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R3714-TGAGACGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGACGTTGGTCTCGTGGGCTCGG</t>
+    <t>R3714-TGTCCAACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCCAACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R3715-TACAGCTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGCTAGGGTCTCGTGGGCTCGG</t>
+    <t>R3715-ATCGTCTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTCTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R3716-ACTAGGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R3716-AAGCACCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCACCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R3717-TTCATCACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCATCACGAGTCTCGTGGGCTCGG</t>
+    <t>R3717-GCTCTAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCTAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R3718-CACTTCCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTTCCACTGTCTCGTGGGCTCGG</t>
+    <t>R3718-CTAGGTGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGGTGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R3719-ACGAGAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAGAGTTCGTCTCGTGGGCTCGG</t>
+    <t>R3719-ATCCACACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCACACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R3720-AACTCCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCCACAAGTCTCGTGGGCTCGG</t>
+    <t>R3720-AACTCAGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCAGAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R3721-ACAGATGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGATGTCCGTCTCGTGGGCTCGG</t>
+    <t>R3721-CTAGTAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGTAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R3722-GACTACATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTACATCGGTCTCGTGGGCTCGG</t>
+    <t>R3722-GATGCACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R3723-CTGTTCTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCTGAGGTCTCGTGGGCTCGG</t>
+    <t>R3723-AGGAGATCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAGATCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R3724-GCTTGTTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGTTCACGTCTCGTGGGCTCGG</t>
+    <t>R3724-GCAACCTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAACCTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R3725-ATCGACTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGACTCTTGTCTCGTGGGCTCGG</t>
+    <t>R3725-GTCTAGCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTAGCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R3726-TCTACGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R3726-ATGCACTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCACTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R3727-GAGTCACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCACGTAGTCTCGTGGGCTCGG</t>
+    <t>R3727-ACGTTGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTTGACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R3728-TAGCTGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGAACGGTCTCGTGGGCTCGG</t>
+    <t>R3728-TCAGAGAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAGAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R3729-CATGCAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGCAGCATGTCTCGTGGGCTCGG</t>
+    <t>R3729-ACACGAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R3730-ACTCTAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGACGGTCTCGTGGGCTCGG</t>
+    <t>R3730-GCTAGAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTAGAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R3731-TCTGGTGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGGTGAGAGTCTCGTGGGCTCGG</t>
+    <t>R3731-AGACTCACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTCACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R3732-AGTTGTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGTGGTTGTCTCGTGGGCTCGG</t>
+    <t>R3732-ACAGTAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R3733-CTACCTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCTGAACGTCTCGTGGGCTCGG</t>
+    <t>R3733-ACTGTCGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTCGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R3734-ATCCAACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCAACGTAGTCTCGTGGGCTCGG</t>
+    <t>R3734-ATCGTGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTGATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R3735-CTGACGACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACGACTTGTCTCGTGGGCTCGG</t>
+    <t>R3735-TCAGCTGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGCTGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R3736-ATCGTTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R3736-CTGAGCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAGCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3737-ATGAACCACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAACCACCGTCTCGTGGGCTCGG</t>
+    <t>R3737-ACAGTGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTGGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3738-CAAGAGCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGCAAGGTCTCGTGGGCTCGG</t>
+    <t>R3738-GAACAACGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAACGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3739-CTCTTCGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTTCGTGAGTCTCGTGGGCTCGG</t>
+    <t>R3739-ACACGAAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGAAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3740-CTACGTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGTCATCGTCTCGTGGGCTCGG</t>
+    <t>R3740-ATGAGACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3741-GACTTGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTTGACCTGTCTCGTGGGCTCGG</t>
+    <t>R3741-TCAGGAACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGGAACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3742-TTGGTTCTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTTCTGCGTCTCGTGGGCTCGG</t>
+    <t>R3742-AACTCTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCTAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3743-ACCTTGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTTGTCTAGTCTCGTGGGCTCGG</t>
+    <t>R3743-ATGACCTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACCTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3744-AACATCGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACATCGTAGGTCTCGTGGGCTCGG</t>
+    <t>R3744-CTACAGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACAGTCTTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
